--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.319878</v>
+        <v>53.678983</v>
       </c>
       <c r="H2">
-        <v>90.95963399999999</v>
+        <v>161.036949</v>
       </c>
       <c r="I2">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="J2">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N2">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O2">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P2">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q2">
-        <v>3000.052600179672</v>
+        <v>9023.964563558935</v>
       </c>
       <c r="R2">
-        <v>27000.47340161704</v>
+        <v>81215.68107203041</v>
       </c>
       <c r="S2">
-        <v>0.0186073008097411</v>
+        <v>0.04880357595805533</v>
       </c>
       <c r="T2">
-        <v>0.0186073008097411</v>
+        <v>0.04880357595805535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.319878</v>
+        <v>53.678983</v>
       </c>
       <c r="H3">
-        <v>90.95963399999999</v>
+        <v>161.036949</v>
       </c>
       <c r="I3">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="J3">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>489.018707</v>
       </c>
       <c r="O3">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P3">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q3">
-        <v>4942.329178652582</v>
+        <v>8750.008953244993</v>
       </c>
       <c r="R3">
-        <v>44480.96260787323</v>
+        <v>78750.08057920494</v>
       </c>
       <c r="S3">
-        <v>0.0306539311085551</v>
+        <v>0.04732196404092932</v>
       </c>
       <c r="T3">
-        <v>0.03065393110855511</v>
+        <v>0.04732196404092932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.319878</v>
+        <v>53.678983</v>
       </c>
       <c r="H4">
-        <v>90.95963399999999</v>
+        <v>161.036949</v>
       </c>
       <c r="I4">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="J4">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N4">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O4">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P4">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q4">
-        <v>4374.33359365214</v>
+        <v>8910.363874979988</v>
       </c>
       <c r="R4">
-        <v>39369.00234286926</v>
+        <v>80193.27487481991</v>
       </c>
       <c r="S4">
-        <v>0.02713103797392302</v>
+        <v>0.04818919856385119</v>
       </c>
       <c r="T4">
-        <v>0.02713103797392302</v>
+        <v>0.04818919856385119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.319878</v>
+        <v>53.678983</v>
       </c>
       <c r="H5">
-        <v>90.95963399999999</v>
+        <v>161.036949</v>
       </c>
       <c r="I5">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="J5">
-        <v>0.08869025187020349</v>
+        <v>0.1635408689489082</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N5">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P5">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q5">
-        <v>1982.80197580832</v>
+        <v>3554.983746424517</v>
       </c>
       <c r="R5">
-        <v>17845.21778227488</v>
+        <v>31994.85371782065</v>
       </c>
       <c r="S5">
-        <v>0.01229798197798426</v>
+        <v>0.0192261303860724</v>
       </c>
       <c r="T5">
-        <v>0.01229798197798426</v>
+        <v>0.0192261303860724</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>322.60733</v>
       </c>
       <c r="I6">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="J6">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N6">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O6">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P6">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q6">
-        <v>10640.31281396231</v>
+        <v>18077.82084758923</v>
       </c>
       <c r="R6">
-        <v>95762.81532566076</v>
+        <v>162700.3876283031</v>
       </c>
       <c r="S6">
-        <v>0.06599467663576368</v>
+        <v>0.09776881288455375</v>
       </c>
       <c r="T6">
-        <v>0.06599467663576368</v>
+        <v>0.09776881288455376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>322.60733</v>
       </c>
       <c r="I7">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="J7">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>489.018707</v>
       </c>
       <c r="O7">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P7">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q7">
         <v>17529.0021539247</v>
@@ -883,10 +883,10 @@
         <v>157761.0193853223</v>
       </c>
       <c r="S7">
-        <v>0.1087205657504614</v>
+        <v>0.09480068123744829</v>
       </c>
       <c r="T7">
-        <v>0.1087205657504614</v>
+        <v>0.09480068123744829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>322.60733</v>
       </c>
       <c r="I8">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="J8">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N8">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O8">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P8">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q8">
-        <v>15514.48724142208</v>
+        <v>17850.24317019163</v>
       </c>
       <c r="R8">
-        <v>139630.3851727987</v>
+        <v>160652.1885317247</v>
       </c>
       <c r="S8">
-        <v>0.09622588983697884</v>
+        <v>0.09653802298206647</v>
       </c>
       <c r="T8">
-        <v>0.09622588983697886</v>
+        <v>0.09653802298206647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>322.60733</v>
       </c>
       <c r="I9">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="J9">
-        <v>0.3145584925382819</v>
+        <v>0.327623464087656</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N9">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P9">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q9">
-        <v>7032.421121376179</v>
+        <v>7121.743312631999</v>
       </c>
       <c r="R9">
-        <v>63291.79009238561</v>
+        <v>64095.68981368799</v>
       </c>
       <c r="S9">
-        <v>0.04361736031507801</v>
+        <v>0.03851594698358752</v>
       </c>
       <c r="T9">
-        <v>0.04361736031507802</v>
+        <v>0.03851594698358752</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.040646</v>
+        <v>15.40846566666667</v>
       </c>
       <c r="H10">
-        <v>42.121938</v>
+        <v>46.225397</v>
       </c>
       <c r="I10">
-        <v>0.04107102377392037</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="J10">
-        <v>0.04107102377392038</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N10">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O10">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P10">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q10">
-        <v>1389.275924543704</v>
+        <v>2590.314502694928</v>
       </c>
       <c r="R10">
-        <v>12503.48332089334</v>
+        <v>23312.83052425435</v>
       </c>
       <c r="S10">
-        <v>0.008616740597870749</v>
+        <v>0.01400898792289441</v>
       </c>
       <c r="T10">
-        <v>0.008616740597870752</v>
+        <v>0.01400898792289441</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.040646</v>
+        <v>15.40846566666667</v>
       </c>
       <c r="H11">
-        <v>42.121938</v>
+        <v>46.225397</v>
       </c>
       <c r="I11">
-        <v>0.04107102377392037</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="J11">
-        <v>0.04107102377392038</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>489.018707</v>
       </c>
       <c r="O11">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P11">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q11">
-        <v>2288.712850788241</v>
+        <v>2511.675985722409</v>
       </c>
       <c r="R11">
-        <v>20598.41565709417</v>
+        <v>22605.08387150168</v>
       </c>
       <c r="S11">
-        <v>0.01419534060142359</v>
+        <v>0.0135836936069354</v>
       </c>
       <c r="T11">
-        <v>0.01419534060142359</v>
+        <v>0.0135836936069354</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.040646</v>
+        <v>15.40846566666667</v>
       </c>
       <c r="H12">
-        <v>42.121938</v>
+        <v>46.225397</v>
       </c>
       <c r="I12">
-        <v>0.04107102377392037</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="J12">
-        <v>0.04107102377392038</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N12">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O12">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P12">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q12">
-        <v>2025.683265426647</v>
+        <v>2557.705607893803</v>
       </c>
       <c r="R12">
-        <v>18231.14938883982</v>
+        <v>23019.35047104423</v>
       </c>
       <c r="S12">
-        <v>0.0125639456664176</v>
+        <v>0.01383263188081048</v>
       </c>
       <c r="T12">
-        <v>0.01256394566641761</v>
+        <v>0.01383263188081048</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.040646</v>
+        <v>15.40846566666667</v>
       </c>
       <c r="H13">
-        <v>42.121938</v>
+        <v>46.225397</v>
       </c>
       <c r="I13">
-        <v>0.04107102377392037</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="J13">
-        <v>0.04107102377392038</v>
+        <v>0.04694414319094096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N13">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P13">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q13">
-        <v>918.203583484907</v>
+        <v>1020.452362190621</v>
       </c>
       <c r="R13">
-        <v>8263.832251364161</v>
+        <v>9184.071259715591</v>
       </c>
       <c r="S13">
-        <v>0.005694996908208429</v>
+        <v>0.00551882978030067</v>
       </c>
       <c r="T13">
-        <v>0.005694996908208431</v>
+        <v>0.00551882978030067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>189.9662756666667</v>
+        <v>151.606552</v>
       </c>
       <c r="H14">
-        <v>569.898827</v>
+        <v>454.819656</v>
       </c>
       <c r="I14">
-        <v>0.5556802318175942</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="J14">
-        <v>0.5556802318175943</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>98.946724</v>
+        <v>168.1098273333333</v>
       </c>
       <c r="N14">
-        <v>296.840172</v>
+        <v>504.329482</v>
       </c>
       <c r="O14">
-        <v>0.2098009692989996</v>
+        <v>0.2984182258032519</v>
       </c>
       <c r="P14">
-        <v>0.2098009692989996</v>
+        <v>0.298418225803252</v>
       </c>
       <c r="Q14">
-        <v>18796.54064769758</v>
+        <v>25486.55127932202</v>
       </c>
       <c r="R14">
-        <v>169168.8658292782</v>
+        <v>229378.9615138982</v>
       </c>
       <c r="S14">
-        <v>0.116582251255624</v>
+        <v>0.1378368490377485</v>
       </c>
       <c r="T14">
-        <v>0.1165822512556241</v>
+        <v>0.1378368490377485</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>189.9662756666667</v>
+        <v>151.606552</v>
       </c>
       <c r="H15">
-        <v>569.898827</v>
+        <v>454.819656</v>
       </c>
       <c r="I15">
-        <v>0.5556802318175942</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="J15">
-        <v>0.5556802318175943</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>489.018707</v>
       </c>
       <c r="O15">
-        <v>0.345629090707923</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="P15">
-        <v>0.3456290907079231</v>
+        <v>0.2893586437755394</v>
       </c>
       <c r="Q15">
-        <v>30965.68750003963</v>
+        <v>24712.81334392275</v>
       </c>
       <c r="R15">
-        <v>278691.1875003567</v>
+        <v>222415.3200953048</v>
       </c>
       <c r="S15">
-        <v>0.192059253247483</v>
+        <v>0.1336523048902264</v>
       </c>
       <c r="T15">
-        <v>0.192059253247483</v>
+        <v>0.1336523048902264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>189.9662756666667</v>
+        <v>151.606552</v>
       </c>
       <c r="H16">
-        <v>569.898827</v>
+        <v>454.819656</v>
       </c>
       <c r="I16">
-        <v>0.5556802318175942</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="J16">
-        <v>0.5556802318175943</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>144.2727966666667</v>
+        <v>165.99353</v>
       </c>
       <c r="N16">
-        <v>432.81839</v>
+        <v>497.98059</v>
       </c>
       <c r="O16">
-        <v>0.3059077790604178</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="P16">
-        <v>0.3059077790604179</v>
+        <v>0.294661504941043</v>
       </c>
       <c r="Q16">
-        <v>27406.96586278095</v>
+        <v>25165.70673760856</v>
       </c>
       <c r="R16">
-        <v>246662.6927650285</v>
+        <v>226491.3606384771</v>
       </c>
       <c r="S16">
-        <v>0.1699869055830984</v>
+        <v>0.1361016515143148</v>
       </c>
       <c r="T16">
-        <v>0.1699869055830984</v>
+        <v>0.1361016515143148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>189.9662756666667</v>
+        <v>151.606552</v>
       </c>
       <c r="H17">
-        <v>569.898827</v>
+        <v>454.819656</v>
       </c>
       <c r="I17">
-        <v>0.5556802318175942</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="J17">
-        <v>0.5556802318175943</v>
+        <v>0.4618915237724948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>65.39610666666668</v>
+        <v>66.22673433333334</v>
       </c>
       <c r="N17">
-        <v>196.18832</v>
+        <v>198.680203</v>
       </c>
       <c r="O17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="P17">
-        <v>0.1386621609326595</v>
+        <v>0.1175616254801657</v>
       </c>
       <c r="Q17">
-        <v>12423.05482656674</v>
+        <v>10040.40684249669</v>
       </c>
       <c r="R17">
-        <v>111807.4934391007</v>
+        <v>90363.66158247017</v>
       </c>
       <c r="S17">
-        <v>0.07705182173138876</v>
+        <v>0.05430071833020506</v>
       </c>
       <c r="T17">
-        <v>0.07705182173138879</v>
+        <v>0.05430071833020506</v>
       </c>
     </row>
   </sheetData>
